--- a/Project Model_No Fast Prod_No Equal Demand.xlsx
+++ b/Project Model_No Fast Prod_No Equal Demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="72">
   <si>
     <t xml:space="preserve">Demand</t>
   </si>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Energy Costs</t>
   </si>
   <si>
-    <t xml:space="preserve">Average Unit Emissions</t>
+    <t xml:space="preserve">Emissions Per Hour</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Production</t>
@@ -157,7 +157,13 @@
     <t xml:space="preserve">yi</t>
   </si>
   <si>
+    <t xml:space="preserve">Weight 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight 2</t>
   </si>
   <si>
     <t xml:space="preserve">Total Cost</t>
@@ -854,8 +860,8 @@
   </sheetPr>
   <dimension ref="A1:AC416"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L400" activeCellId="0" sqref="L400"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B125" activeCellId="0" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2521,23 +2527,23 @@
         <v>1</v>
       </c>
       <c r="B83" s="0" t="n">
-        <f aca="false">F47</f>
-        <v>0.15</v>
+        <f aca="false">F47/B50</f>
+        <v>0.0166666666666667</v>
       </c>
       <c r="C83" s="0" t="n">
-        <f aca="false">F67</f>
-        <v>0.164383561643836</v>
+        <f aca="false">F67/B70</f>
+        <v>0.0074719800747198</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="n">
-        <f aca="false">D50</f>
-        <v>0.00911111111111111</v>
+        <f aca="false">B47*D47+B48*D48+B49*D49</f>
+        <v>0.082</v>
       </c>
       <c r="G83" s="0" t="n">
-        <f aca="false">D70</f>
-        <v>0.00945454545454546</v>
+        <f aca="false">B67*D67+B68*D68+B69*D69</f>
+        <v>0.208</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,23 +2551,23 @@
         <v>2</v>
       </c>
       <c r="B84" s="0" t="n">
-        <f aca="false">F52</f>
-        <v>0.18</v>
+        <f aca="false">F52/B55</f>
+        <v>0.0225</v>
       </c>
       <c r="C84" s="0" t="n">
-        <f aca="false">F72</f>
-        <v>0.197027027027027</v>
+        <f aca="false">F72/B75</f>
+        <v>0.00938223938223938</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F84" s="0" t="n">
-        <f aca="false">D55</f>
-        <v>0.007375</v>
+        <f aca="false">B52*D52+B53*D53+B54*D54</f>
+        <v>0.059</v>
       </c>
       <c r="G84" s="0" t="n">
-        <f aca="false">D75</f>
-        <v>0.00880952380952381</v>
+        <f aca="false">B72*D72+B73*D73+B74*D74</f>
+        <v>0.185</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,23 +2575,23 @@
         <v>3</v>
       </c>
       <c r="B85" s="0" t="n">
-        <f aca="false">F57</f>
-        <v>0.09</v>
+        <f aca="false">F57/B60</f>
+        <v>0.012</v>
       </c>
       <c r="C85" s="0" t="n">
-        <f aca="false">F77</f>
-        <v>0.0977483443708609</v>
+        <f aca="false">F77/B80</f>
+        <v>0.00488741721854305</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F85" s="0" t="n">
-        <f aca="false">D60</f>
-        <v>0.0098</v>
+        <f aca="false">B57*D57+B58*D58+B59*D59</f>
+        <v>0.0735</v>
       </c>
       <c r="G85" s="0" t="n">
-        <f aca="false">D80</f>
-        <v>0.0098</v>
+        <f aca="false">B77*D77+B78*D78+B79*D79</f>
+        <v>0.196</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,6 +2714,9 @@
       <c r="A95" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="F95" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
@@ -2715,7 +2724,38 @@
       </c>
       <c r="B96" s="19" t="n">
         <f aca="false" t="array" ref="B96:B98">TRANSPOSE(N108:P108)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <f aca="false">F96</f>
+        <v>0.9</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <f aca="false">G96</f>
+        <v>0.9</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <f aca="false">H96</f>
+        <v>0.9</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <f aca="false">I96</f>
+        <v>0.9</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <f aca="false">J96</f>
+        <v>0.9</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <f aca="false">K96</f>
+        <v>0.9</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <f aca="false">L96</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2723,7 +2763,39 @@
         <v>2</v>
       </c>
       <c r="B97" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <f aca="false">F96</f>
+        <v>0.9</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <f aca="false">F97</f>
+        <v>0.9</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <f aca="false">G97</f>
+        <v>0.9</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <f aca="false">H97</f>
+        <v>0.9</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <f aca="false">I97</f>
+        <v>0.9</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <f aca="false">J97</f>
+        <v>0.9</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <f aca="false">K97</f>
+        <v>0.9</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <f aca="false">L97</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,45 +2803,106 @@
         <v>3</v>
       </c>
       <c r="B98" s="21" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <f aca="false">F97</f>
+        <v>0.9</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <f aca="false">F98</f>
+        <v>0.9</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <f aca="false">G98</f>
+        <v>0.9</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <f aca="false">H98</f>
+        <v>0.9</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <f aca="false">I98</f>
+        <v>0.9</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <f aca="false">J98</f>
+        <v>0.9</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <f aca="false">K98</f>
+        <v>0.9</v>
+      </c>
+      <c r="M98" s="0" t="n">
+        <f aca="false">L98</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B101" s="22" t="n">
         <f aca="false">B123+B149+B175+B201+B227+B253+B279+B305+B331+B357+B383+B409</f>
-        <v>20108.2721518764</v>
+        <v>18279.6648</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <f aca="false">MMULT(TRANSPOSE($F$96:$M$98),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT($F$96:$M$98,$B$39:$I$41)</f>
+        <v>13.936866</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <f aca="false">1-F96</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B102" s="22" t="n">
         <f aca="false">B124+B150+B176+B202+B228+B254+B280+B306+B332+B358+B384+B410</f>
-        <v>23.863</v>
+        <v>157.986958333333</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <f aca="false">SUMPRODUCT($F$101:$F$103/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT($F$101:$F$103/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>0.00262861111111111</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <f aca="false">F101</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="0" t="n">
+        <f aca="false">(D101+D102)*SUM(N109:U144)</f>
+        <v>262201.893635</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <f aca="false">F102</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1</v>
@@ -2799,16 +2932,16 @@
         <v>3</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N108" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P108" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108" s="0" t="n">
         <v>0</v>
@@ -2862,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="D109" s="24" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E109" s="24" t="n">
         <v>0</v>
@@ -2881,14 +3014,14 @@
       </c>
       <c r="J109" s="0" t="n">
         <f aca="false">SUM(B109:I109)</f>
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L109" s="0" t="n">
         <f aca="false" t="array" ref="L109:L111">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
       <c r="N109" s="23" t="n">
         <v>0</v>
@@ -2897,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="24" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="Q109" s="24" t="n">
         <v>0</v>
@@ -2921,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="X109" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y109" s="24" t="n">
         <v>0</v>
@@ -2950,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="D110" s="27" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E110" s="27" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="F110" s="27" t="n">
         <v>0</v>
@@ -2969,13 +3102,13 @@
       </c>
       <c r="J110" s="0" t="n">
         <f aca="false">SUM(B110:I110)</f>
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
       <c r="N110" s="26" t="n">
         <v>0</v>
@@ -2984,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="P110" s="27" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="Q110" s="27" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="R110" s="27" t="n">
         <v>0</v>
@@ -3008,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="X110" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y110" s="27" t="n">
         <v>1</v>
@@ -3040,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="30" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F111" s="30" t="n">
         <v>0</v>
@@ -3056,13 +3189,13 @@
       </c>
       <c r="J111" s="0" t="n">
         <f aca="false">SUM(B111:I111)</f>
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L111" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="N111" s="29" t="n">
         <v>200</v>
@@ -3074,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Q111" s="30" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R111" s="30" t="n">
         <v>0</v>
@@ -3098,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Y111" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z111" s="30" t="n">
         <v>0</v>
@@ -3160,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="P112" s="24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="24" t="n">
         <v>0</v>
@@ -3169,7 +3302,7 @@
         <v>200</v>
       </c>
       <c r="S112" s="24" t="n">
-        <v>16.6666666666668</v>
+        <v>0</v>
       </c>
       <c r="T112" s="24" t="n">
         <v>75</v>
@@ -3184,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="X112" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y112" s="24" t="n">
         <v>0</v>
@@ -3193,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="AA112" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB112" s="24" t="n">
         <v>1</v>
@@ -3204,31 +3337,31 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N113" s="26" t="n">
         <v>0</v>
@@ -3237,16 +3370,16 @@
         <v>0</v>
       </c>
       <c r="P113" s="27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q113" s="27" t="n">
-        <v>83.3333333333335</v>
+        <v>300</v>
       </c>
       <c r="R113" s="27" t="n">
         <v>0</v>
       </c>
       <c r="S113" s="27" t="n">
-        <v>408.333333333333</v>
+        <v>425</v>
       </c>
       <c r="T113" s="27" t="n">
         <v>0</v>
@@ -3261,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="X113" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y113" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z113" s="27" t="n">
         <v>0</v>
@@ -3323,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="Q114" s="30" t="n">
-        <v>216.666666666667</v>
+        <v>0</v>
       </c>
       <c r="R114" s="30" t="n">
         <v>0</v>
@@ -3347,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Y114" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z114" s="30" t="n">
         <v>0</v>
@@ -3370,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="P115" s="24" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q115" s="24" t="n">
         <v>0</v>
@@ -3385,7 +3518,7 @@
         <v>100</v>
       </c>
       <c r="U115" s="25" t="n">
-        <v>108.333333333333</v>
+        <v>125</v>
       </c>
       <c r="V115" s="23" t="n">
         <v>0</v>
@@ -3394,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="X115" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y115" s="24" t="n">
         <v>0</v>
@@ -3414,7 +3547,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N116" s="26" t="n">
         <v>0</v>
@@ -3423,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="P116" s="27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Q116" s="27" t="n">
-        <v>116.666666666667</v>
+        <v>250</v>
       </c>
       <c r="R116" s="27" t="n">
         <v>0</v>
@@ -3438,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="28" t="n">
-        <v>16.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="V116" s="26" t="n">
         <v>0</v>
@@ -3447,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="X116" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y116" s="27" t="n">
         <v>1</v>
@@ -3462,12 +3595,12 @@
         <v>0</v>
       </c>
       <c r="AC116" s="28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>1</v>
@@ -3503,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="Q117" s="30" t="n">
-        <v>133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="R117" s="30" t="n">
         <v>0</v>
@@ -3527,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="Y117" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z117" s="30" t="n">
         <v>0</v>
@@ -3554,7 +3687,7 @@
         <v>-0</v>
       </c>
       <c r="D118" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E118" s="24" t="n">
         <v>-0</v>
@@ -3578,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q118" s="24" t="n">
         <v>0</v>
@@ -3593,7 +3726,7 @@
         <v>125</v>
       </c>
       <c r="U118" s="25" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="V118" s="23" t="n">
         <v>0</v>
@@ -3602,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="X118" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y118" s="24" t="n">
         <v>0</v>
@@ -3631,7 +3764,7 @@
         <v>-0</v>
       </c>
       <c r="D119" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E119" s="27" t="n">
         <v>1</v>
@@ -3655,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="P119" s="27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q119" s="27" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="R119" s="27" t="n">
         <v>0</v>
@@ -3670,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="28" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V119" s="26" t="n">
         <v>0</v>
@@ -3679,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="X119" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y119" s="27" t="n">
         <v>1</v>
@@ -3694,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="AC119" s="28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,7 +3844,7 @@
         <v>-0</v>
       </c>
       <c r="E120" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F120" s="30" t="n">
         <v>-0</v>
@@ -3735,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="Q120" s="30" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R120" s="30" t="n">
         <v>0</v>
@@ -3759,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="Y120" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z120" s="30" t="n">
         <v>0</v>
@@ -3782,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="24" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q121" s="24" t="n">
         <v>0</v>
@@ -3797,7 +3930,7 @@
         <v>75</v>
       </c>
       <c r="U121" s="25" t="n">
-        <v>83.3333333333333</v>
+        <v>125</v>
       </c>
       <c r="V121" s="23" t="n">
         <v>0</v>
@@ -3806,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="X121" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y121" s="24" t="n">
         <v>0</v>
@@ -3826,7 +3959,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N122" s="26" t="n">
         <v>0</v>
@@ -3835,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="P122" s="27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Q122" s="27" t="n">
-        <v>141.666666666667</v>
+        <v>200</v>
       </c>
       <c r="R122" s="27" t="n">
         <v>0</v>
@@ -3850,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="28" t="n">
-        <v>41.6666666666668</v>
+        <v>0</v>
       </c>
       <c r="V122" s="26" t="n">
         <v>0</v>
@@ -3859,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="X122" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y122" s="27" t="n">
         <v>1</v>
@@ -3874,16 +4007,16 @@
         <v>0</v>
       </c>
       <c r="AC122" s="28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B123" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B109:I111),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B118:I120,$B$32:$I$34)+1.2*SUMPRODUCT(B109:I111,$B$39:$I$41)</f>
-        <v>1481.82166887417</v>
+        <v>1382.048</v>
       </c>
       <c r="N123" s="29" t="n">
         <v>250</v>
@@ -3895,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="Q123" s="30" t="n">
-        <v>58.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="R123" s="30" t="n">
         <v>0</v>
@@ -3919,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="Y123" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z123" s="30" t="n">
         <v>0</v>
@@ -3936,11 +4069,11 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B124" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B109:I111),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.96</v>
+        <f aca="false">SUMPRODUCT(J109:J111/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J109:J111/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>11.8445138888889</v>
       </c>
       <c r="N124" s="23" t="n">
         <v>0</v>
@@ -3949,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="P124" s="24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="24" t="n">
         <v>0</v>
@@ -3958,7 +4091,7 @@
         <v>175</v>
       </c>
       <c r="S124" s="24" t="n">
-        <v>68.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="T124" s="24" t="n">
         <v>50</v>
@@ -3973,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="X124" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y124" s="24" t="n">
         <v>0</v>
@@ -3982,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="AA124" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB124" s="24" t="n">
         <v>1</v>
@@ -3999,16 +4132,16 @@
         <v>0</v>
       </c>
       <c r="P125" s="27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q125" s="27" t="n">
-        <v>161.666666666667</v>
+        <v>300</v>
       </c>
       <c r="R125" s="27" t="n">
         <v>0</v>
       </c>
       <c r="S125" s="27" t="n">
-        <v>331.666666666667</v>
+        <v>400</v>
       </c>
       <c r="T125" s="27" t="n">
         <v>0</v>
@@ -4023,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="X125" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y125" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z125" s="27" t="n">
         <v>0</v>
@@ -4043,7 +4176,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N126" s="29" t="n">
         <v>180</v>
@@ -4055,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="Q126" s="30" t="n">
-        <v>138.333333333333</v>
+        <v>0</v>
       </c>
       <c r="R126" s="30" t="n">
         <v>0</v>
@@ -4079,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="Y126" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z126" s="30" t="n">
         <v>0</v>
@@ -4126,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="24" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="Q127" s="24" t="n">
         <v>0</v>
@@ -4141,7 +4274,7 @@
         <v>100</v>
       </c>
       <c r="U127" s="25" t="n">
-        <v>51.6666666666667</v>
+        <v>125</v>
       </c>
       <c r="V127" s="23" t="n">
         <v>0</v>
@@ -4150,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="X127" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y127" s="24" t="n">
         <v>0</v>
@@ -4180,7 +4313,7 @@
         <v>-0</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>-0</v>
@@ -4204,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="P128" s="27" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="Q128" s="27" t="n">
-        <v>153.333333333333</v>
+        <v>250</v>
       </c>
       <c r="R128" s="27" t="n">
         <v>0</v>
@@ -4219,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="28" t="n">
-        <v>73.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="V128" s="26" t="n">
         <v>0</v>
@@ -4228,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="X128" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y128" s="27" t="n">
         <v>1</v>
@@ -4243,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="AC128" s="28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,7 +4390,7 @@
         <v>-0</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>250</v>
@@ -4284,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="Q129" s="30" t="n">
-        <v>96.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="R129" s="30" t="n">
         <v>0</v>
@@ -4308,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="Y129" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z129" s="30" t="n">
         <v>0</v>
@@ -4337,7 +4470,7 @@
         <v>-0</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F130" s="0" t="n">
         <v>-0</v>
@@ -4358,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="P130" s="24" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q130" s="24" t="n">
         <v>0</v>
@@ -4373,7 +4506,7 @@
         <v>150</v>
       </c>
       <c r="U130" s="25" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="V130" s="23" t="n">
         <v>0</v>
@@ -4382,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="X130" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y130" s="24" t="n">
         <v>0</v>
@@ -4397,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="AC130" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,10 +4541,10 @@
         <v>0</v>
       </c>
       <c r="P131" s="27" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q131" s="27" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="R131" s="27" t="n">
         <v>0</v>
@@ -4423,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="U131" s="28" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="V131" s="26" t="n">
         <v>0</v>
@@ -4432,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="X131" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y131" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z131" s="27" t="n">
         <v>0</v>
@@ -4447,12 +4580,12 @@
         <v>0</v>
       </c>
       <c r="AC131" s="28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N132" s="29" t="n">
         <v>200</v>
@@ -4464,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q132" s="30" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R132" s="30" t="n">
         <v>0</v>
@@ -4488,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="Y132" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z132" s="30" t="n">
         <v>0</v>
@@ -4505,7 +4638,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N133" s="23" t="n">
         <v>0</v>
@@ -4514,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="P133" s="24" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q133" s="24" t="n">
         <v>0</v>
@@ -4529,7 +4662,7 @@
         <v>25</v>
       </c>
       <c r="U133" s="25" t="n">
-        <v>58.3333333333334</v>
+        <v>100</v>
       </c>
       <c r="V133" s="23" t="n">
         <v>0</v>
@@ -4538,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="X133" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y133" s="24" t="n">
         <v>0</v>
@@ -4558,7 +4691,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>1</v>
@@ -4594,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="P134" s="27" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q134" s="27" t="n">
-        <v>166.666666666667</v>
+        <v>350</v>
       </c>
       <c r="R134" s="27" t="n">
         <v>0</v>
@@ -4609,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="U134" s="28" t="n">
-        <v>41.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="V134" s="26" t="n">
         <v>0</v>
@@ -4618,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="X134" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y134" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z134" s="27" t="n">
         <v>0</v>
@@ -4633,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="AC134" s="28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4648,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="D135" s="24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E135" s="24" t="n">
         <v>0</v>
@@ -4657,7 +4790,7 @@
         <v>200</v>
       </c>
       <c r="G135" s="24" t="n">
-        <v>16.6666666666668</v>
+        <v>0</v>
       </c>
       <c r="H135" s="24" t="n">
         <v>75</v>
@@ -4667,14 +4800,14 @@
       </c>
       <c r="J135" s="0" t="n">
         <f aca="false">SUM(B135:I135)</f>
-        <v>491.666666666667</v>
+        <v>375</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L135" s="0" t="n">
         <f aca="false" t="array" ref="L135:L137">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
       <c r="N135" s="29" t="n">
         <v>150</v>
@@ -4686,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="Q135" s="30" t="n">
-        <v>183.333333333333</v>
+        <v>0</v>
       </c>
       <c r="R135" s="30" t="n">
         <v>0</v>
@@ -4710,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="Y135" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z135" s="30" t="n">
         <v>0</v>
@@ -4736,16 +4869,16 @@
         <v>0</v>
       </c>
       <c r="D136" s="27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E136" s="27" t="n">
-        <v>83.3333333333335</v>
+        <v>300</v>
       </c>
       <c r="F136" s="27" t="n">
         <v>0</v>
       </c>
       <c r="G136" s="27" t="n">
-        <v>408.333333333333</v>
+        <v>425</v>
       </c>
       <c r="H136" s="27" t="n">
         <v>0</v>
@@ -4755,13 +4888,13 @@
       </c>
       <c r="J136" s="0" t="n">
         <f aca="false">SUM(B136:I136)</f>
-        <v>491.666666666667</v>
+        <v>825</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L136" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
       <c r="N136" s="23" t="n">
         <v>0</v>
@@ -4770,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q136" s="24" t="n">
         <v>0</v>
@@ -4779,7 +4912,7 @@
         <v>250</v>
       </c>
       <c r="S136" s="24" t="n">
-        <v>16.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="T136" s="24" t="n">
         <v>50</v>
@@ -4794,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="X136" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y136" s="24" t="n">
         <v>0</v>
@@ -4803,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="AA136" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB136" s="24" t="n">
         <v>1</v>
@@ -4826,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="30" t="n">
-        <v>216.666666666667</v>
+        <v>0</v>
       </c>
       <c r="F137" s="30" t="n">
         <v>0</v>
@@ -4842,13 +4975,13 @@
       </c>
       <c r="J137" s="0" t="n">
         <f aca="false">SUM(B137:I137)</f>
-        <v>491.666666666667</v>
+        <v>275</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L137" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="N137" s="26" t="n">
         <v>0</v>
@@ -4857,16 +4990,16 @@
         <v>0</v>
       </c>
       <c r="P137" s="27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q137" s="27" t="n">
-        <v>108.333333333333</v>
+        <v>350</v>
       </c>
       <c r="R137" s="27" t="n">
         <v>0</v>
       </c>
       <c r="S137" s="27" t="n">
-        <v>383.333333333333</v>
+        <v>400</v>
       </c>
       <c r="T137" s="27" t="n">
         <v>0</v>
@@ -4881,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="X137" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y137" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z137" s="27" t="n">
         <v>0</v>
@@ -4949,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="Q138" s="30" t="n">
-        <v>241.666666666667</v>
+        <v>0</v>
       </c>
       <c r="R138" s="30" t="n">
         <v>0</v>
@@ -4973,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="Y138" s="30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z138" s="30" t="n">
         <v>0</v>
@@ -4990,31 +5123,31 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N139" s="23" t="n">
         <v>0</v>
@@ -5023,13 +5156,13 @@
         <v>0</v>
       </c>
       <c r="P139" s="24" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q139" s="24" t="n">
         <v>0</v>
       </c>
       <c r="R139" s="24" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="S139" s="24" t="n">
         <v>0</v>
@@ -5047,13 +5180,13 @@
         <v>0</v>
       </c>
       <c r="X139" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y139" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Z139" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA139" s="24" t="n">
         <v>0</v>
@@ -5106,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="P140" s="27" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q140" s="27" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="R140" s="27" t="n">
-        <v>74.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="S140" s="27" t="n">
         <v>500</v>
@@ -5130,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="X140" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y140" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z140" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA140" s="27" t="n">
         <v>2</v>
@@ -5159,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="Q141" s="30" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="R141" s="30" t="n">
         <v>0</v>
@@ -5183,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="Y141" s="30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z141" s="30" t="n">
         <v>0</v>
@@ -5200,7 +5333,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N142" s="23" t="n">
         <v>0</v>
@@ -5209,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="24" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="Q142" s="24" t="n">
         <v>0</v>
@@ -5224,7 +5357,7 @@
         <v>150</v>
       </c>
       <c r="U142" s="25" t="n">
-        <v>41.6666666666667</v>
+        <v>150</v>
       </c>
       <c r="V142" s="23" t="n">
         <v>0</v>
@@ -5233,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="X142" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y142" s="24" t="n">
         <v>0</v>
@@ -5253,7 +5386,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>1</v>
@@ -5286,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="27" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="Q143" s="27" t="n">
-        <v>183.333333333333</v>
+        <v>450</v>
       </c>
       <c r="R143" s="27" t="n">
         <v>0</v>
@@ -5301,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="U143" s="28" t="n">
-        <v>108.333333333333</v>
+        <v>0</v>
       </c>
       <c r="V143" s="26" t="n">
         <v>0</v>
@@ -5310,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="X143" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y143" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z143" s="27" t="n">
         <v>0</v>
@@ -5325,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="AC143" s="28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,7 +5473,7 @@
         <v>-0</v>
       </c>
       <c r="D144" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E144" s="24" t="n">
         <v>-0</v>
@@ -5349,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="H144" s="24" t="n">
         <v>1</v>
@@ -5367,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="Q144" s="30" t="n">
-        <v>266.666666666667</v>
+        <v>0</v>
       </c>
       <c r="R144" s="30" t="n">
         <v>0</v>
@@ -5391,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="Y144" s="30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z144" s="30" t="n">
         <v>0</v>
@@ -5417,10 +5550,10 @@
         <v>-0</v>
       </c>
       <c r="D145" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E145" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" s="27" t="n">
         <v>-0</v>
@@ -5449,7 +5582,7 @@
         <v>-0</v>
       </c>
       <c r="E146" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F146" s="30" t="n">
         <v>-0</v>
@@ -5466,30 +5599,30 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B149" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B135:I137),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B144:I146,$B$32:$I$34)+1.2*SUMPRODUCT(B135:I137,$B$39:$I$41)</f>
-        <v>1580.8489183223</v>
+        <v>1433.544</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B150" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B135:I137),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.47</v>
+        <f aca="false">SUMPRODUCT(J135:J137/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J135:J137/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>12.1960416666667</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5530,7 +5663,7 @@
         <v>-0</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>-0</v>
@@ -5539,7 +5672,7 @@
         <v>250</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>250</v>
@@ -5559,10 +5692,10 @@
         <v>-0</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F155" s="0" t="n">
         <v>-0</v>
@@ -5591,7 +5724,7 @@
         <v>-0</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F156" s="0" t="n">
         <v>-0</v>
@@ -5608,17 +5741,17 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>1</v>
@@ -5660,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="D161" s="24" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E161" s="24" t="n">
         <v>0</v>
@@ -5675,18 +5808,18 @@
         <v>100</v>
       </c>
       <c r="I161" s="25" t="n">
-        <v>108.333333333333</v>
+        <v>125</v>
       </c>
       <c r="J161" s="0" t="n">
         <f aca="false">SUM(B161:I161)</f>
-        <v>508.333333333333</v>
+        <v>450</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L161" s="0" t="n">
         <f aca="false" t="array" ref="L161:L163">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5700,10 +5833,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E162" s="27" t="n">
-        <v>116.666666666667</v>
+        <v>250</v>
       </c>
       <c r="F162" s="27" t="n">
         <v>0</v>
@@ -5715,17 +5848,17 @@
         <v>0</v>
       </c>
       <c r="I162" s="28" t="n">
-        <v>16.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="J162" s="0" t="n">
         <f aca="false">SUM(B162:I162)</f>
-        <v>508.333333333333</v>
+        <v>700</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L162" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="30" t="n">
-        <v>133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F163" s="30" t="n">
         <v>0</v>
@@ -5758,13 +5891,13 @@
       </c>
       <c r="J163" s="0" t="n">
         <f aca="false">SUM(B163:I163)</f>
-        <v>508.333333333333</v>
+        <v>375</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L163" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,31 +5943,31 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5873,12 +6006,12 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>1</v>
@@ -5917,7 +6050,7 @@
         <v>-0</v>
       </c>
       <c r="D170" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E170" s="24" t="n">
         <v>-0</v>
@@ -5946,7 +6079,7 @@
         <v>-0</v>
       </c>
       <c r="D171" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E171" s="27" t="n">
         <v>1</v>
@@ -5961,7 +6094,7 @@
         <v>-0</v>
       </c>
       <c r="I171" s="28" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5978,7 +6111,7 @@
         <v>-0</v>
       </c>
       <c r="E172" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F172" s="30" t="n">
         <v>-0</v>
@@ -5995,30 +6128,30 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B175" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B161:I163),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B170:I172,$B$32:$I$34)+1.2*SUMPRODUCT(B161:I163,$B$39:$I$41)</f>
-        <v>1617.10804415011</v>
+        <v>1436.3</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B176" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B161:I163),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.205</v>
+        <f aca="false">SUMPRODUCT(J161:J163/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J161:J163/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>12.9375</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6059,7 +6192,7 @@
         <v>-0</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>-0</v>
@@ -6088,7 +6221,7 @@
         <v>-0</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>250</v>
@@ -6103,7 +6236,7 @@
         <v>-0</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6120,7 +6253,7 @@
         <v>-0</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F182" s="0" t="n">
         <v>-0</v>
@@ -6137,17 +6270,17 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>1</v>
@@ -6189,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="D187" s="24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E187" s="24" t="n">
         <v>0</v>
@@ -6204,18 +6337,18 @@
         <v>125</v>
       </c>
       <c r="I187" s="25" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J187" s="0" t="n">
         <f aca="false">SUM(B187:I187)</f>
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L187" s="0" t="n">
         <f aca="false" t="array" ref="L187:L189">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,10 +6362,10 @@
         <v>0</v>
       </c>
       <c r="D188" s="27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E188" s="27" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="F188" s="27" t="n">
         <v>0</v>
@@ -6244,17 +6377,17 @@
         <v>0</v>
       </c>
       <c r="I188" s="28" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J188" s="0" t="n">
         <f aca="false">SUM(B188:I188)</f>
-        <v>525</v>
+        <v>650</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L188" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="E189" s="30" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F189" s="30" t="n">
         <v>0</v>
@@ -6287,13 +6420,13 @@
       </c>
       <c r="J189" s="0" t="n">
         <f aca="false">SUM(B189:I189)</f>
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L189" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,31 +6472,31 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6402,12 +6535,12 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>1</v>
@@ -6446,7 +6579,7 @@
         <v>-0</v>
       </c>
       <c r="D196" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E196" s="24" t="n">
         <v>-0</v>
@@ -6475,7 +6608,7 @@
         <v>-0</v>
       </c>
       <c r="D197" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E197" s="27" t="n">
         <v>1</v>
@@ -6490,7 +6623,7 @@
         <v>-0</v>
       </c>
       <c r="I197" s="28" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,7 +6640,7 @@
         <v>-0</v>
       </c>
       <c r="E198" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F198" s="30" t="n">
         <v>-0</v>
@@ -6524,30 +6657,30 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B201" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B187:I189),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B196:I198,$B$32:$I$34)+1.2*SUMPRODUCT(B187:I189,$B$39:$I$41)</f>
-        <v>1686.38908609272</v>
+        <v>1504.824</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B202" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B187:I189),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.45</v>
+        <f aca="false">SUMPRODUCT(J187:J189/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J187:J189/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.5315277777778</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6588,7 +6721,7 @@
         <v>-0</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>-0</v>
@@ -6617,7 +6750,7 @@
         <v>-0</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>250</v>
@@ -6632,7 +6765,7 @@
         <v>-0</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6649,7 +6782,7 @@
         <v>-0</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F208" s="0" t="n">
         <v>-0</v>
@@ -6666,17 +6799,17 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>1</v>
@@ -6718,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="D213" s="24" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E213" s="24" t="n">
         <v>0</v>
@@ -6733,18 +6866,18 @@
         <v>75</v>
       </c>
       <c r="I213" s="25" t="n">
-        <v>83.3333333333333</v>
+        <v>125</v>
       </c>
       <c r="J213" s="0" t="n">
         <f aca="false">SUM(B213:I213)</f>
-        <v>483.333333333333</v>
+        <v>450</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L213" s="0" t="n">
         <f aca="false" t="array" ref="L213:L215">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6758,10 +6891,10 @@
         <v>0</v>
       </c>
       <c r="D214" s="27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E214" s="27" t="n">
-        <v>141.666666666667</v>
+        <v>200</v>
       </c>
       <c r="F214" s="27" t="n">
         <v>0</v>
@@ -6773,17 +6906,17 @@
         <v>0</v>
       </c>
       <c r="I214" s="28" t="n">
-        <v>41.6666666666668</v>
+        <v>0</v>
       </c>
       <c r="J214" s="0" t="n">
         <f aca="false">SUM(B214:I214)</f>
-        <v>483.333333333334</v>
+        <v>575</v>
       </c>
       <c r="K214" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L214" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6800,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="30" t="n">
-        <v>58.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="F215" s="30" t="n">
         <v>0</v>
@@ -6816,13 +6949,13 @@
       </c>
       <c r="J215" s="0" t="n">
         <f aca="false">SUM(B215:I215)</f>
-        <v>483.333333333333</v>
+        <v>425</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L215" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6868,31 +7001,31 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6931,12 +7064,12 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>1</v>
@@ -6975,7 +7108,7 @@
         <v>-0</v>
       </c>
       <c r="D222" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E222" s="24" t="n">
         <v>-0</v>
@@ -7004,7 +7137,7 @@
         <v>-0</v>
       </c>
       <c r="D223" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E223" s="27" t="n">
         <v>1</v>
@@ -7019,7 +7152,7 @@
         <v>-0</v>
       </c>
       <c r="I223" s="28" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7036,7 +7169,7 @@
         <v>-0</v>
       </c>
       <c r="E224" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F224" s="30" t="n">
         <v>-0</v>
@@ -7053,30 +7186,30 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B227" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B213:I215),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B222:I224,$B$32:$I$34)+1.2*SUMPRODUCT(B213:I215,$B$39:$I$41)</f>
-        <v>1637.47175275938</v>
+        <v>1457.336</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B228" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B213:I215),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.45</v>
+        <f aca="false">SUMPRODUCT(J213:J215/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J213:J215/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>12.505625</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7117,7 +7250,7 @@
         <v>-0</v>
       </c>
       <c r="D232" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>-0</v>
@@ -7146,7 +7279,7 @@
         <v>-0</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>250</v>
@@ -7161,7 +7294,7 @@
         <v>-0</v>
       </c>
       <c r="I233" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7178,7 +7311,7 @@
         <v>-0</v>
       </c>
       <c r="E234" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F234" s="0" t="n">
         <v>-0</v>
@@ -7195,17 +7328,17 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>1</v>
@@ -7247,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="D239" s="24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E239" s="24" t="n">
         <v>0</v>
@@ -7256,7 +7389,7 @@
         <v>175</v>
       </c>
       <c r="G239" s="24" t="n">
-        <v>68.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="H239" s="24" t="n">
         <v>50</v>
@@ -7266,14 +7399,14 @@
       </c>
       <c r="J239" s="0" t="n">
         <f aca="false">SUM(B239:I239)</f>
-        <v>493.333333333333</v>
+        <v>325</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L239" s="0" t="n">
         <f aca="false" t="array" ref="L239:L241">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7287,16 +7420,16 @@
         <v>0</v>
       </c>
       <c r="D240" s="27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E240" s="27" t="n">
-        <v>161.666666666667</v>
+        <v>300</v>
       </c>
       <c r="F240" s="27" t="n">
         <v>0</v>
       </c>
       <c r="G240" s="27" t="n">
-        <v>331.666666666667</v>
+        <v>400</v>
       </c>
       <c r="H240" s="27" t="n">
         <v>0</v>
@@ -7306,13 +7439,13 @@
       </c>
       <c r="J240" s="0" t="n">
         <f aca="false">SUM(B240:I240)</f>
-        <v>493.333333333333</v>
+        <v>800</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L240" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="E241" s="30" t="n">
-        <v>138.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F241" s="30" t="n">
         <v>0</v>
@@ -7345,13 +7478,13 @@
       </c>
       <c r="J241" s="0" t="n">
         <f aca="false">SUM(B241:I241)</f>
-        <v>493.333333333333</v>
+        <v>355</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L241" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7397,31 +7530,31 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7460,12 +7593,12 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>1</v>
@@ -7504,7 +7637,7 @@
         <v>-0</v>
       </c>
       <c r="D248" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E248" s="24" t="n">
         <v>-0</v>
@@ -7513,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="H248" s="24" t="n">
         <v>1</v>
@@ -7533,10 +7666,10 @@
         <v>-0</v>
       </c>
       <c r="D249" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E249" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F249" s="27" t="n">
         <v>-0</v>
@@ -7565,7 +7698,7 @@
         <v>-0</v>
       </c>
       <c r="E250" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F250" s="30" t="n">
         <v>-0</v>
@@ -7582,30 +7715,30 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B253" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B239:I241),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B248:I250,$B$32:$I$34)+1.2*SUMPRODUCT(B239:I241,$B$39:$I$41)</f>
-        <v>1634.14083532009</v>
+        <v>1468.6944</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B254" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B239:I241),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.764</v>
+        <f aca="false">SUMPRODUCT(J239:J241/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J239:J241/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>12.3401111111111</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7646,7 +7779,7 @@
         <v>-0</v>
       </c>
       <c r="D258" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E258" s="0" t="n">
         <v>-0</v>
@@ -7655,7 +7788,7 @@
         <v>250</v>
       </c>
       <c r="G258" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="H258" s="0" t="n">
         <v>250</v>
@@ -7675,10 +7808,10 @@
         <v>-0</v>
       </c>
       <c r="D259" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E259" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F259" s="0" t="n">
         <v>-0</v>
@@ -7707,7 +7840,7 @@
         <v>-0</v>
       </c>
       <c r="E260" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F260" s="0" t="n">
         <v>-0</v>
@@ -7724,17 +7857,17 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>1</v>
@@ -7776,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="D265" s="24" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E265" s="24" t="n">
         <v>0</v>
@@ -7791,18 +7924,18 @@
         <v>100</v>
       </c>
       <c r="I265" s="25" t="n">
-        <v>51.6666666666667</v>
+        <v>125</v>
       </c>
       <c r="J265" s="0" t="n">
         <f aca="false">SUM(B265:I265)</f>
-        <v>476.666666666667</v>
+        <v>425</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L265" s="0" t="n">
         <f aca="false" t="array" ref="L265:L267">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7816,10 +7949,10 @@
         <v>0</v>
       </c>
       <c r="D266" s="27" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E266" s="27" t="n">
-        <v>153.333333333333</v>
+        <v>250</v>
       </c>
       <c r="F266" s="27" t="n">
         <v>0</v>
@@ -7831,17 +7964,17 @@
         <v>0</v>
       </c>
       <c r="I266" s="28" t="n">
-        <v>73.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="J266" s="0" t="n">
         <f aca="false">SUM(B266:I266)</f>
-        <v>476.666666666667</v>
+        <v>625</v>
       </c>
       <c r="K266" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L266" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7858,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="E267" s="30" t="n">
-        <v>96.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="F267" s="30" t="n">
         <v>0</v>
@@ -7874,13 +8007,13 @@
       </c>
       <c r="J267" s="0" t="n">
         <f aca="false">SUM(B267:I267)</f>
-        <v>476.666666666667</v>
+        <v>380</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L267" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7926,31 +8059,31 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,12 +8122,12 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>1</v>
@@ -8033,7 +8166,7 @@
         <v>-0</v>
       </c>
       <c r="D274" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E274" s="24" t="n">
         <v>-0</v>
@@ -8062,7 +8195,7 @@
         <v>-0</v>
       </c>
       <c r="D275" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E275" s="27" t="n">
         <v>1</v>
@@ -8077,7 +8210,7 @@
         <v>-0</v>
       </c>
       <c r="I275" s="28" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,7 +8227,7 @@
         <v>-0</v>
       </c>
       <c r="E276" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F276" s="30" t="n">
         <v>-0</v>
@@ -8111,30 +8244,30 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B279" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B265:I267),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B274:I276,$B$32:$I$34)+1.2*SUMPRODUCT(B265:I267,$B$39:$I$41)</f>
-        <v>1645.78883532009</v>
+        <v>1468.1824</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B280" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B265:I267),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.764</v>
+        <f aca="false">SUMPRODUCT(J265:J267/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J265:J267/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>12.2055972222222</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8175,7 +8308,7 @@
         <v>-0</v>
       </c>
       <c r="D284" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E284" s="0" t="n">
         <v>-0</v>
@@ -8204,7 +8337,7 @@
         <v>-0</v>
       </c>
       <c r="D285" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E285" s="0" t="n">
         <v>250</v>
@@ -8219,7 +8352,7 @@
         <v>-0</v>
       </c>
       <c r="I285" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8236,7 +8369,7 @@
         <v>-0</v>
       </c>
       <c r="E286" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F286" s="0" t="n">
         <v>-0</v>
@@ -8253,17 +8386,17 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>1</v>
@@ -8305,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="D291" s="24" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E291" s="24" t="n">
         <v>0</v>
@@ -8320,18 +8453,18 @@
         <v>150</v>
       </c>
       <c r="I291" s="25" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J291" s="0" t="n">
         <f aca="false">SUM(B291:I291)</f>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L291" s="0" t="n">
         <f aca="false" t="array" ref="L291:L293">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8345,10 +8478,10 @@
         <v>0</v>
       </c>
       <c r="D292" s="27" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E292" s="27" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F292" s="27" t="n">
         <v>0</v>
@@ -8360,17 +8493,17 @@
         <v>0</v>
       </c>
       <c r="I292" s="28" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J292" s="0" t="n">
         <f aca="false">SUM(B292:I292)</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K292" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L292" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8387,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="E293" s="30" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F293" s="30" t="n">
         <v>0</v>
@@ -8403,13 +8536,13 @@
       </c>
       <c r="J293" s="0" t="n">
         <f aca="false">SUM(B293:I293)</f>
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L293" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8455,31 +8588,31 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,12 +8651,12 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>1</v>
@@ -8562,7 +8695,7 @@
         <v>-0</v>
       </c>
       <c r="D300" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E300" s="24" t="n">
         <v>-0</v>
@@ -8577,7 +8710,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="25" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8591,10 +8724,10 @@
         <v>-0</v>
       </c>
       <c r="D301" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E301" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F301" s="27" t="n">
         <v>-0</v>
@@ -8606,7 +8739,7 @@
         <v>-0</v>
       </c>
       <c r="I301" s="28" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8623,7 +8756,7 @@
         <v>-0</v>
       </c>
       <c r="E302" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F302" s="30" t="n">
         <v>-0</v>
@@ -8640,30 +8773,30 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B305" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B291:I293),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B300:I302,$B$32:$I$34)+1.2*SUMPRODUCT(B291:I293,$B$39:$I$41)</f>
-        <v>1618.52566887417</v>
+        <v>1564.64</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B306" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B291:I293),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.96</v>
+        <f aca="false">SUMPRODUCT(J291:J293/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J291:J293/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>12.6925</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8704,7 +8837,7 @@
         <v>-0</v>
       </c>
       <c r="D310" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E310" s="0" t="n">
         <v>-0</v>
@@ -8719,7 +8852,7 @@
         <v>250</v>
       </c>
       <c r="I310" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8733,10 +8866,10 @@
         <v>-0</v>
       </c>
       <c r="D311" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E311" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F311" s="0" t="n">
         <v>-0</v>
@@ -8748,7 +8881,7 @@
         <v>-0</v>
       </c>
       <c r="I311" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8765,7 +8898,7 @@
         <v>-0</v>
       </c>
       <c r="E312" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F312" s="0" t="n">
         <v>-0</v>
@@ -8782,17 +8915,17 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>1</v>
@@ -8834,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="D317" s="24" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E317" s="24" t="n">
         <v>0</v>
@@ -8849,18 +8982,18 @@
         <v>25</v>
       </c>
       <c r="I317" s="25" t="n">
-        <v>58.3333333333334</v>
+        <v>100</v>
       </c>
       <c r="J317" s="0" t="n">
         <f aca="false">SUM(B317:I317)</f>
-        <v>433.333333333333</v>
+        <v>325</v>
       </c>
       <c r="K317" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L317" s="0" t="n">
         <f aca="false" t="array" ref="L317:L319">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8874,10 +9007,10 @@
         <v>0</v>
       </c>
       <c r="D318" s="27" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E318" s="27" t="n">
-        <v>166.666666666667</v>
+        <v>350</v>
       </c>
       <c r="F318" s="27" t="n">
         <v>0</v>
@@ -8889,17 +9022,17 @@
         <v>0</v>
       </c>
       <c r="I318" s="28" t="n">
-        <v>41.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="J318" s="0" t="n">
         <f aca="false">SUM(B318:I318)</f>
-        <v>433.333333333333</v>
+        <v>725</v>
       </c>
       <c r="K318" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L318" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8916,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="E319" s="30" t="n">
-        <v>183.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F319" s="30" t="n">
         <v>0</v>
@@ -8932,13 +9065,13 @@
       </c>
       <c r="J319" s="0" t="n">
         <f aca="false">SUM(B319:I319)</f>
-        <v>433.333333333333</v>
+        <v>250</v>
       </c>
       <c r="K319" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L319" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8984,31 +9117,31 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9047,12 +9180,12 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>1</v>
@@ -9091,7 +9224,7 @@
         <v>-0</v>
       </c>
       <c r="D326" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E326" s="24" t="n">
         <v>-0</v>
@@ -9120,10 +9253,10 @@
         <v>-0</v>
       </c>
       <c r="D327" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E327" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F327" s="27" t="n">
         <v>-0</v>
@@ -9135,7 +9268,7 @@
         <v>-0</v>
       </c>
       <c r="I327" s="28" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9152,7 +9285,7 @@
         <v>-0</v>
       </c>
       <c r="E328" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F328" s="30" t="n">
         <v>-0</v>
@@ -9169,30 +9302,30 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B331" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B317:I319),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B326:I328,$B$32:$I$34)+1.2*SUMPRODUCT(B317:I319,$B$39:$I$41)</f>
-        <v>1547.5049183223</v>
+        <v>1425.16</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B332" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B317:I319),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.47</v>
+        <f aca="false">SUMPRODUCT(J317:J319/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J317:J319/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>10.7579861111111</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9233,7 +9366,7 @@
         <v>-0</v>
       </c>
       <c r="D336" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E336" s="0" t="n">
         <v>-0</v>
@@ -9262,10 +9395,10 @@
         <v>-0</v>
       </c>
       <c r="D337" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E337" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F337" s="0" t="n">
         <v>-0</v>
@@ -9277,7 +9410,7 @@
         <v>-0</v>
       </c>
       <c r="I337" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9294,7 +9427,7 @@
         <v>-0</v>
       </c>
       <c r="E338" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F338" s="0" t="n">
         <v>-0</v>
@@ -9311,17 +9444,17 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>1</v>
@@ -9363,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="D343" s="24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E343" s="24" t="n">
         <v>0</v>
@@ -9372,7 +9505,7 @@
         <v>250</v>
       </c>
       <c r="G343" s="24" t="n">
-        <v>16.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="H343" s="24" t="n">
         <v>50</v>
@@ -9382,14 +9515,14 @@
       </c>
       <c r="J343" s="0" t="n">
         <f aca="false">SUM(B343:I343)</f>
-        <v>491.666666666667</v>
+        <v>375</v>
       </c>
       <c r="K343" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L343" s="0" t="n">
         <f aca="false" t="array" ref="L343:L345">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9403,16 +9536,16 @@
         <v>0</v>
       </c>
       <c r="D344" s="27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E344" s="27" t="n">
-        <v>108.333333333333</v>
+        <v>350</v>
       </c>
       <c r="F344" s="27" t="n">
         <v>0</v>
       </c>
       <c r="G344" s="27" t="n">
-        <v>383.333333333333</v>
+        <v>400</v>
       </c>
       <c r="H344" s="27" t="n">
         <v>0</v>
@@ -9422,13 +9555,13 @@
       </c>
       <c r="J344" s="0" t="n">
         <f aca="false">SUM(B344:I344)</f>
-        <v>491.666666666667</v>
+        <v>850</v>
       </c>
       <c r="K344" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L344" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9445,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="E345" s="30" t="n">
-        <v>241.666666666667</v>
+        <v>0</v>
       </c>
       <c r="F345" s="30" t="n">
         <v>0</v>
@@ -9461,13 +9594,13 @@
       </c>
       <c r="J345" s="0" t="n">
         <f aca="false">SUM(B345:I345)</f>
-        <v>491.666666666667</v>
+        <v>250</v>
       </c>
       <c r="K345" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L345" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9513,31 +9646,31 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9576,12 +9709,12 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>1</v>
@@ -9620,7 +9753,7 @@
         <v>-0</v>
       </c>
       <c r="D352" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E352" s="24" t="n">
         <v>-0</v>
@@ -9629,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="G352" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="H352" s="24" t="n">
         <v>1</v>
@@ -9649,10 +9782,10 @@
         <v>-0</v>
       </c>
       <c r="D353" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E353" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F353" s="27" t="n">
         <v>-0</v>
@@ -9681,7 +9814,7 @@
         <v>-0</v>
       </c>
       <c r="E354" s="30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F354" s="30" t="n">
         <v>-0</v>
@@ -9698,30 +9831,30 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B357" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B343:I345),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B352:I354,$B$32:$I$34)+1.2*SUMPRODUCT(B343:I345,$B$39:$I$41)</f>
-        <v>1575.6009183223</v>
+        <v>1427.144</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B358" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B343:I345),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.47</v>
+        <f aca="false">SUMPRODUCT(J343:J345/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J343:J345/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>12.1354166666667</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9762,7 +9895,7 @@
         <v>-0</v>
       </c>
       <c r="D362" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E362" s="0" t="n">
         <v>-0</v>
@@ -9771,7 +9904,7 @@
         <v>250</v>
       </c>
       <c r="G362" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="H362" s="0" t="n">
         <v>250</v>
@@ -9791,10 +9924,10 @@
         <v>-0</v>
       </c>
       <c r="D363" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E363" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F363" s="0" t="n">
         <v>-0</v>
@@ -9823,7 +9956,7 @@
         <v>-0</v>
       </c>
       <c r="E364" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="F364" s="0" t="n">
         <v>-0</v>
@@ -9840,17 +9973,17 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>1</v>
@@ -9892,13 +10025,13 @@
         <v>0</v>
       </c>
       <c r="D369" s="24" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E369" s="24" t="n">
         <v>0</v>
       </c>
       <c r="F369" s="24" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="G369" s="24" t="n">
         <v>0</v>
@@ -9911,14 +10044,14 @@
       </c>
       <c r="J369" s="0" t="n">
         <f aca="false">SUM(B369:I369)</f>
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="K369" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L369" s="0" t="n">
         <f aca="false" t="array" ref="L369:L371">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9932,13 +10065,13 @@
         <v>0</v>
       </c>
       <c r="D370" s="27" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E370" s="27" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="F370" s="27" t="n">
-        <v>74.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="G370" s="27" t="n">
         <v>500</v>
@@ -9951,13 +10084,13 @@
       </c>
       <c r="J370" s="0" t="n">
         <f aca="false">SUM(B370:I370)</f>
-        <v>625</v>
+        <v>1050</v>
       </c>
       <c r="K370" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L370" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9974,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="E371" s="30" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="F371" s="30" t="n">
         <v>0</v>
@@ -9990,13 +10123,13 @@
       </c>
       <c r="J371" s="0" t="n">
         <f aca="false">SUM(B371:I371)</f>
-        <v>625</v>
+        <v>275</v>
       </c>
       <c r="K371" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L371" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10042,31 +10175,31 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10105,12 +10238,12 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>1</v>
@@ -10149,13 +10282,13 @@
         <v>-0</v>
       </c>
       <c r="D378" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E378" s="24" t="n">
         <v>-0</v>
       </c>
       <c r="F378" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G378" s="24" t="n">
         <v>-0</v>
@@ -10178,13 +10311,13 @@
         <v>-0</v>
       </c>
       <c r="D379" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E379" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F379" s="27" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="G379" s="27" t="n">
         <v>2</v>
@@ -10210,7 +10343,7 @@
         <v>-0</v>
       </c>
       <c r="E380" s="30" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="F380" s="30" t="n">
         <v>-0</v>
@@ -10227,30 +10360,30 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B383" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B369:I371),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B378:I380,$B$32:$I$34)+1.2*SUMPRODUCT(B369:I371,$B$39:$I$41)</f>
-        <v>1830.10966887417</v>
+        <v>1667.872</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B384" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B369:I371),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.96</v>
+        <f aca="false">SUMPRODUCT(J369:J371/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J369:J371/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>15.4498611111111</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10291,13 +10424,13 @@
         <v>-0</v>
       </c>
       <c r="D388" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E388" s="0" t="n">
         <v>-0</v>
       </c>
       <c r="F388" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G388" s="0" t="n">
         <v>-0</v>
@@ -10320,13 +10453,13 @@
         <v>-0</v>
       </c>
       <c r="D389" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E389" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F389" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="G389" s="0" t="n">
         <v>500</v>
@@ -10352,7 +10485,7 @@
         <v>-0</v>
       </c>
       <c r="E390" s="0" t="n">
-        <v>500</v>
+        <v>-0</v>
       </c>
       <c r="F390" s="0" t="n">
         <v>-0</v>
@@ -10369,17 +10502,17 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>1</v>
@@ -10421,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="24" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E395" s="24" t="n">
         <v>0</v>
@@ -10436,18 +10569,18 @@
         <v>150</v>
       </c>
       <c r="I395" s="25" t="n">
-        <v>41.6666666666667</v>
+        <v>150</v>
       </c>
       <c r="J395" s="0" t="n">
         <f aca="false">SUM(B395:I395)</f>
-        <v>766.666666666667</v>
+        <v>700</v>
       </c>
       <c r="K395" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L395" s="0" t="n">
         <f aca="false" t="array" ref="L395:L397">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
-        <v>3520</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10461,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="D396" s="27" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E396" s="27" t="n">
-        <v>183.333333333333</v>
+        <v>450</v>
       </c>
       <c r="F396" s="27" t="n">
         <v>0</v>
@@ -10476,17 +10609,17 @@
         <v>0</v>
       </c>
       <c r="I396" s="28" t="n">
-        <v>108.333333333333</v>
+        <v>0</v>
       </c>
       <c r="J396" s="0" t="n">
         <f aca="false">SUM(B396:I396)</f>
-        <v>766.666666666667</v>
+        <v>1100</v>
       </c>
       <c r="K396" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L396" s="0" t="n">
-        <v>3360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10503,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="E397" s="30" t="n">
-        <v>266.666666666667</v>
+        <v>0</v>
       </c>
       <c r="F397" s="30" t="n">
         <v>0</v>
@@ -10519,13 +10652,13 @@
       </c>
       <c r="J397" s="0" t="n">
         <f aca="false">SUM(B397:I397)</f>
-        <v>766.666666666667</v>
+        <v>500</v>
       </c>
       <c r="K397" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L397" s="32" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10571,31 +10704,31 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10634,12 +10767,12 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>1</v>
@@ -10678,7 +10811,7 @@
         <v>-0</v>
       </c>
       <c r="D404" s="24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E404" s="24" t="n">
         <v>-0</v>
@@ -10707,10 +10840,10 @@
         <v>-0</v>
       </c>
       <c r="D405" s="27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E405" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F405" s="27" t="n">
         <v>-0</v>
@@ -10722,7 +10855,7 @@
         <v>-0</v>
       </c>
       <c r="I405" s="28" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10739,7 +10872,7 @@
         <v>-0</v>
       </c>
       <c r="E406" s="30" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="F406" s="30" t="n">
         <v>-0</v>
@@ -10756,30 +10889,30 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B409" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B395:I397),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B404:I406,$B$32:$I$34)+1.2*SUMPRODUCT(B395:I397,$B$39:$I$41)</f>
-        <v>2252.96183664459</v>
+        <v>2043.92</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B410" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B395:I397),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.94</v>
+        <f aca="false">SUMPRODUCT(J395:J397/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J395:J397/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>19.3902777777778</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10820,7 +10953,7 @@
         <v>-0</v>
       </c>
       <c r="D414" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
       <c r="E414" s="0" t="n">
         <v>-0</v>
@@ -10849,10 +10982,10 @@
         <v>-0</v>
       </c>
       <c r="D415" s="0" t="n">
-        <v>-0</v>
+        <v>250</v>
       </c>
       <c r="E415" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F415" s="0" t="n">
         <v>-0</v>
@@ -10864,7 +10997,7 @@
         <v>-0</v>
       </c>
       <c r="I415" s="0" t="n">
-        <v>250</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10881,7 +11014,7 @@
         <v>-0</v>
       </c>
       <c r="E416" s="0" t="n">
-        <v>500</v>
+        <v>-0</v>
       </c>
       <c r="F416" s="0" t="n">
         <v>-0</v>
